--- a/Assets/DesignDocument/职业规划(魏).xlsx
+++ b/Assets/DesignDocument/职业规划(魏).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923DD9BB-50CB-4346-B291-D088E0666065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993E2C1-C5D5-40F6-A543-21882C645F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
